--- a/Scénario de tests.xlsx
+++ b/Scénario de tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="4680"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="14112" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Comportement attendu</t>
   </si>
@@ -24,25 +24,148 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Ajouter un utilisateur</t>
-  </si>
-  <si>
-    <t>Ajout d'un user dans BD</t>
-  </si>
-  <si>
-    <t>Modification des infos dans BD</t>
-  </si>
-  <si>
-    <t>Modifier les infos d'un utilisateur</t>
-  </si>
-  <si>
-    <t>Se logger</t>
-  </si>
-  <si>
-    <t>Donne accès à la page d'accueil</t>
-  </si>
-  <si>
-    <t>Ok</t>
+    <t>Changement dans l'horaire</t>
+  </si>
+  <si>
+    <t>Entrer disponibilité</t>
+  </si>
+  <si>
+    <t>Se connecter (utilisateur et admin)</t>
+  </si>
+  <si>
+    <t>Option qui permet de ne pas avoir à entrer de nouveau le nombre de ressource nécessaire si celle-ci est convenable.</t>
+  </si>
+  <si>
+    <t>Créer une structure de dossier pour les fichier de formation.</t>
+  </si>
+  <si>
+    <t>Permettre d'entré un nombre d'employé pour chacun des postes à comblé à chaque jour.</t>
+  </si>
+  <si>
+    <t>Permettre à l'employé d'entrer les heures qu'il désire faire.</t>
+  </si>
+  <si>
+    <t>Consultation de l'horaire de l'employé.</t>
+  </si>
+  <si>
+    <t>Modification des infos dans BD.</t>
+  </si>
+  <si>
+    <t>Ajout d'un employé dans BD.</t>
+  </si>
+  <si>
+    <t>Donne accès à la page d'accueil à l'employé ou  l'administrateur.</t>
+  </si>
+  <si>
+    <t>Renouvellement automatique nombre de ressources</t>
+  </si>
+  <si>
+    <t>Permettre l'envoit de message à tout les employés.</t>
+  </si>
+  <si>
+    <t>Permettre d'enregistrer des fichiers de formations.</t>
+  </si>
+  <si>
+    <t>Accès page</t>
+  </si>
+  <si>
+    <t>Déconnecte l'utilisateur en cours.</t>
+  </si>
+  <si>
+    <t>Déconnexion</t>
+  </si>
+  <si>
+    <t>Message Remplacement</t>
+  </si>
+  <si>
+    <t>Envoit un message dans la page d'accueil permettant de voir les employés qui désirent être remplacé en indiquant la date et l'heure.</t>
+  </si>
+  <si>
+    <t>Création horaire</t>
+  </si>
+  <si>
+    <t>Crée l'horaire finale que tout les employé pourront consultés.</t>
+  </si>
+  <si>
+    <t>Permet de voir les employés qui ont lu les messages qui sont envoyé.</t>
+  </si>
+  <si>
+    <t>Ajouter un employé</t>
+  </si>
+  <si>
+    <t>Modifier les infos d'un employé</t>
+  </si>
+  <si>
+    <t>Supprimer un employé</t>
+  </si>
+  <si>
+    <t>Suppression d'un employé dans la BD.</t>
+  </si>
+  <si>
+    <t>Rappel Employé</t>
+  </si>
+  <si>
+    <t>Horaire courriel</t>
+  </si>
+  <si>
+    <t>Mot de passe invalide</t>
+  </si>
+  <si>
+    <t>Un employé n'entre pas son mot de passe correctement, un message avertissant l'utilisateur lui est envoyé.</t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur invalide</t>
+  </si>
+  <si>
+    <t>Un employé n'entre pas le bon nom d'utilisateur.  Un message avertissant l'utilisateur lui est envoyé.</t>
+  </si>
+  <si>
+    <t>Remplacement comblé</t>
+  </si>
+  <si>
+    <t>Consultation de l'horaire</t>
+  </si>
+  <si>
+    <t>Consultation de l'horaire par l'administrateur</t>
+  </si>
+  <si>
+    <t>Consultation de l'horaire des employés.</t>
+  </si>
+  <si>
+    <t>Permettre au gestionnaire de faire des changements dans l'horaire.</t>
+  </si>
+  <si>
+    <t>Entrer le nombre d'employés nécessaire par poste</t>
+  </si>
+  <si>
+    <t>Créer une arborescence de dossier</t>
+  </si>
+  <si>
+    <t>Téleverser un fichier</t>
+  </si>
+  <si>
+    <t>Permet au gestionnaire de vérifier les employés qui ont accèdé aux fichiers.</t>
+  </si>
+  <si>
+    <t>Envoyer un message à tous les employés</t>
+  </si>
+  <si>
+    <t>Consultation des messages</t>
+  </si>
+  <si>
+    <t>Consultation des fichiers</t>
+  </si>
+  <si>
+    <t>Permet à ce que seulement certaine page ne soit accessible que par l'administrateur.</t>
+  </si>
+  <si>
+    <t>Envoit un message à l'employé s'il n'a pas donné ses disponibilités 48 heures à l'avance.</t>
+  </si>
+  <si>
+    <t>Un employé peut spécifier qu’il ne veut pas recevoir de courriel d'alerte lorsqu'il y a un nouveau remplacement disponible.</t>
+  </si>
+  <si>
+    <t>Enlève la marque de remplacement et change le nom de la personne sur l'horaire.</t>
   </si>
 </sst>
 </file>
@@ -388,20 +511,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="114.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -423,35 +546,195 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -478,7 +761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scénario de tests.xlsx
+++ b/Scénario de tests.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="14112" windowHeight="4680"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Comportement attendu</t>
   </si>
@@ -166,13 +166,16 @@
   </si>
   <si>
     <t>Enlève la marque de remplacement et change le nom de la personne sur l'horaire.</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,15 +514,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="114.6640625" style="3" customWidth="1"/>
@@ -527,7 +532,7 @@
     <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -544,40 +549,51 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -585,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -593,7 +609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -601,7 +617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -609,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -617,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -625,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -633,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -641,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -649,7 +665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -657,7 +673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -665,23 +681,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -689,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -697,7 +719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -705,7 +727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -713,7 +735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -721,7 +743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -729,7 +751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -744,24 +766,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
